--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3969819.097834042</v>
+        <v>3971638.369525083</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287933</v>
+        <v>9964927.035287939</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717218</v>
+        <v>430763.7823717211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7451601.610615646</v>
+        <v>7451601.610615645</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>389.6765771742204</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>150.3081199623967</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586846</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.12574707908767</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>87.12574707908773</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>114.3878208327519</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U11" t="n">
-        <v>250.908895987647</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.12752302841043</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>41.48791714390944</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.40780811157381</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>103.1983720868894</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1821,7 +1821,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>86.27179222792698</v>
+        <v>83.07736723265378</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374741</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>158.4196020499983</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>64.44601915224108</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S22" t="n">
         <v>181.3384883584589</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>64.44601915224102</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>176.1296726841153</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>91.23885045891498</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.18500030523434</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>105.3798824585354</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>210.1774809087077</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>105.3798824585354</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>64.44601915224106</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>55.91958182405055</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
-        <v>173.7142460095903</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>7.729505493045152</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>175.2324354739158</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.807289433107</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.807289433107</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>858.5415908263562</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>858.5415908263562</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>447.5556860367487</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>2017.897565358469</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4421,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4567,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>288.8387344486664</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>141.948786950756</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>141.948786950756</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>141.948786950756</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>640.1231790760426</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>640.1231790760426</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.915471247702</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.915471247702</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.649772640952</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>747.8615200427075</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>336.8756152531</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>322.9522111916909</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,7 +4807,7 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4846,10 +4846,10 @@
         <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.654643287636</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.515311311824</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5023,55 +5023,55 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
         <v>4152.297666746069</v>
@@ -5114,16 +5114,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
         <v>1062.737405310563</v>
@@ -5132,16 +5132,16 @@
         <v>1062.737405310563</v>
       </c>
       <c r="N12" t="n">
-        <v>1321.464883050339</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O12" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>635.2012272238899</v>
+        <v>932.2078141341359</v>
       </c>
       <c r="C13" t="n">
-        <v>466.2650442959829</v>
+        <v>763.271631206229</v>
       </c>
       <c r="D13" t="n">
-        <v>466.2650442959829</v>
+        <v>613.1549917938933</v>
       </c>
       <c r="E13" t="n">
-        <v>318.3519507135898</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F13" t="n">
         <v>318.3519507135898</v>
@@ -5196,13 +5196,13 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213699</v>
+        <v>1334.648858107906</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778398</v>
+        <v>1113.856278964376</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5266,43 +5266,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
         <v>4606.950144347201</v>
@@ -5314,7 +5314,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
         <v>3468.466124132384</v>
@@ -5323,7 +5323,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>241.496329903453</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>833.5146841555808</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1455.610647554917</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O15" t="n">
-        <v>2002.487122555111</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.070640981187</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>784.1719286328732</v>
       </c>
       <c r="C16" t="n">
-        <v>495.0957149476001</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9790755352643</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9790755352643</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F16" t="n">
-        <v>198.089128037354</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5469,19 +5469,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1704.019693541621</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1414.60252350466</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213699</v>
+        <v>1186.612972606643</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>965.820393463113</v>
       </c>
     </row>
     <row r="17">
@@ -5503,46 +5503,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.1437450015398</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892195</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294992</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234026</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668096</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>572.0050724668096</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>699.3689196510109</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1321.464883050345</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="O18" t="n">
-        <v>1868.341358050537</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P18" t="n">
-        <v>2287.924876476611</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2518.486150461857</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5636,7 +5636,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149475921</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>495.0957149475921</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D19" t="n">
-        <v>495.0957149475921</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9524904749386</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F19" t="n">
         <v>261.0625429770282</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062227</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.94347985634</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819379</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>897.536758921362</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778318</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127626</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
@@ -5761,25 +5761,25 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5840,16 +5840,16 @@
         <v>1062.737405310565</v>
       </c>
       <c r="M21" t="n">
-        <v>1654.755759562693</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="N21" t="n">
-        <v>2276.85172296203</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O21" t="n">
-        <v>2276.85172296203</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599891011</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C22" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D22" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E22" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F22" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160703</v>
@@ -5934,28 +5934,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789009</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103736</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897849</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860888</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628709</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193408</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160677</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507205</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294971</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234009</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6071,25 +6071,25 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668126</v>
+        <v>302.0892292003537</v>
       </c>
       <c r="L24" t="n">
-        <v>1062.737405310565</v>
+        <v>792.8215620441057</v>
       </c>
       <c r="M24" t="n">
-        <v>1321.464883050337</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050337</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050532</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476608</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6214,13 +6214,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160683</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160704</v>
@@ -6244,10 +6244,10 @@
         <v>3603.645964259464</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580352</v>
@@ -6308,19 +6308,19 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L27" t="n">
-        <v>732.2286627472052</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M27" t="n">
-        <v>1324.247016999334</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N27" t="n">
-        <v>1946.342980398671</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O27" t="n">
-        <v>2493.219455398866</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476028</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196959</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160704</v>
@@ -6420,16 +6420,16 @@
         <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856351</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.52630981939</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213727</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778425</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6457,13 +6457,13 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507206</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K29" t="n">
         <v>842.9746074384032</v>
@@ -6478,37 +6478,37 @@
         <v>2920.783927800325</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
         <v>241.4963299034533</v>
       </c>
       <c r="K30" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L30" t="n">
-        <v>572.0050724668126</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M30" t="n">
-        <v>699.3689196509997</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050337</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050532</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476608</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>847.854940431237</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>847.854940431237</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D31" t="n">
-        <v>697.7383010189012</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="E31" t="n">
-        <v>549.8252074365081</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="F31" t="n">
         <v>402.9352599385978</v>
@@ -6615,10 +6615,10 @@
         <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411611</v>
@@ -6666,7 +6666,7 @@
         <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>847.854940431237</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.258820896356</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127625</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
@@ -6791,16 +6791,16 @@
         <v>1324.247016999334</v>
       </c>
       <c r="N33" t="n">
-        <v>1946.342980398671</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O33" t="n">
-        <v>2493.219455398866</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P33" t="n">
-        <v>2518.486150461856</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476028</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149476028</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D34" t="n">
-        <v>495.0957149476028</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E34" t="n">
-        <v>347.1826213652097</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F34" t="n">
-        <v>200.2926738672993</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6891,19 +6891,19 @@
         <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062238</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856351</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.52630981939</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213727</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778425</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6949,22 +6949,22 @@
         <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R35" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
@@ -7019,25 +7019,25 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L36" t="n">
-        <v>732.2286627472052</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M36" t="n">
-        <v>1324.247016999334</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N36" t="n">
-        <v>1946.342980398671</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="O36" t="n">
-        <v>2493.219455398866</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P36" t="n">
-        <v>2518.486150461856</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7074,19 +7074,19 @@
         <v>495.0957149476028</v>
       </c>
       <c r="C37" t="n">
-        <v>495.0957149476028</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D37" t="n">
-        <v>495.0957149476028</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E37" t="n">
-        <v>347.1826213652097</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F37" t="n">
-        <v>200.2926738672993</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>158.9453371942748</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160703</v>
@@ -7162,13 +7162,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.258820896356</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127625</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.8483481516068</v>
       </c>
       <c r="I38" t="n">
         <v>93.84834815160703</v>
@@ -7192,16 +7192,16 @@
         <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7256,25 +7256,25 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>241.4963299034533</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L39" t="n">
-        <v>732.2286627472052</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M39" t="n">
-        <v>1324.247016999334</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="N39" t="n">
-        <v>1324.247016999334</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O39" t="n">
-        <v>1871.123491999529</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2290.707010425605</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3350971725662</v>
+        <v>784.5128849845635</v>
       </c>
       <c r="C40" t="n">
-        <v>621.3989142446593</v>
+        <v>615.5767020566566</v>
       </c>
       <c r="D40" t="n">
-        <v>471.2822748323235</v>
+        <v>465.4600626443208</v>
       </c>
       <c r="E40" t="n">
-        <v>323.3691812499304</v>
+        <v>317.5469690619277</v>
       </c>
       <c r="F40" t="n">
-        <v>176.4792337520201</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7356,28 +7356,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.943563972474</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.867350287201</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V40" t="n">
-        <v>1710.182862081314</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.765692044353</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.776141146336</v>
+        <v>1186.953928958333</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.9835620028059</v>
+        <v>966.1613498148032</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580352</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C43" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D43" t="n">
-        <v>697.7383010189012</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="E43" t="n">
-        <v>549.8252074365081</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="F43" t="n">
-        <v>402.9352599385978</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160704</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T43" t="n">
-        <v>2429.412499335697</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U43" t="n">
-        <v>2140.336285650424</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V43" t="n">
-        <v>1885.651797444537</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W43" t="n">
-        <v>1596.234627407576</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.232167332914</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.439588189384</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
@@ -7651,25 +7651,25 @@
         <v>373.3442236507205</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
@@ -7730,19 +7730,19 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668126</v>
+        <v>474.5240650264058</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.737405310565</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="M45" t="n">
-        <v>1654.755759562693</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N45" t="n">
-        <v>2276.85172296203</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O45" t="n">
-        <v>2276.85172296203</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
         <v>2553.812354695766</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.346924411984</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8704,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782908983</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782911228</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>51.31264782908272</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.3126478290834</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>51.31264782908329</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>51.31264782908249</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782908363</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>138.7044571535269</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>184.2217382451277</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>89.83901298705402</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>62.34368079027749</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>60.16217041864219</v>
+        <v>63.35659541391539</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>8.827219048629559</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>80.97502887069017</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440895</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.16945386597133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440895</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>76.00797063971268</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>54.18219756401626</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>169.3996530468605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>60.16217041863155</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440895</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>76.00797063971277</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>60.16217041863155</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440895</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>89.50146619888069</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>43.76774845317155</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>140.8859675251672</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>50.4772199151214</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>786515.9026905952</v>
       </c>
       <c r="F2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786515.9026905955</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786515.9026905955</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786515.9026905954</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786515.9026905954</v>
+      </c>
+      <c r="M2" t="n">
         <v>786515.9026905951</v>
       </c>
-      <c r="G2" t="n">
-        <v>786515.9026905946</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="O2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="P2" t="n">
         <v>786515.902690595</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786515.9026905951</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786515.9026905952</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786515.9026905955</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786515.902690595</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786515.9026905952</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786515.9026905955</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786515.902690595</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786515.9026905951</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545123</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.692154792520645e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.229845444569946e-09</v>
+        <v>1.218711304318276e-09</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662887</v>
+        <v>5069.91576066292</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662903</v>
+        <v>5069.915760662952</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760663171</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662818</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="I4" t="n">
+        <v>5069.91576066282</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5069.915760662834</v>
+      </c>
+      <c r="K4" t="n">
         <v>5069.915760662823</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5069.915760662826</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5069.915760662783</v>
       </c>
       <c r="L4" t="n">
         <v>5069.915760662822</v>
       </c>
       <c r="M4" t="n">
+        <v>5069.915760662817</v>
+      </c>
+      <c r="N4" t="n">
         <v>5069.915760662823</v>
       </c>
-      <c r="N4" t="n">
-        <v>5069.915760662815</v>
-      </c>
       <c r="O4" t="n">
-        <v>5069.915760662829</v>
+        <v>5069.915760662833</v>
       </c>
       <c r="P4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662822</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
         <v>100930.0394572385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64517.82805270722</v>
+        <v>-64517.82805270748</v>
       </c>
       <c r="C6" t="n">
-        <v>525450.0511618369</v>
+        <v>525450.0511618371</v>
       </c>
       <c r="D6" t="n">
         <v>525450.0511618372</v>
       </c>
       <c r="E6" t="n">
-        <v>-256352.6878004616</v>
+        <v>-256029.6149636828</v>
       </c>
       <c r="F6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="G6" t="n">
-        <v>680156.9776540531</v>
+        <v>680480.0504908295</v>
       </c>
       <c r="H6" t="n">
-        <v>680156.9776540464</v>
+        <v>680480.0504908283</v>
       </c>
       <c r="I6" t="n">
-        <v>680156.9776540506</v>
+        <v>680480.0504908297</v>
       </c>
       <c r="J6" t="n">
-        <v>503733.7584614577</v>
+        <v>504056.8312982367</v>
       </c>
       <c r="K6" t="n">
-        <v>680156.977654051</v>
+        <v>680480.0504908295</v>
       </c>
       <c r="L6" t="n">
-        <v>680156.9776540506</v>
+        <v>680480.0504908295</v>
       </c>
       <c r="M6" t="n">
-        <v>555849.7662639134</v>
+        <v>556172.8391006921</v>
       </c>
       <c r="N6" t="n">
-        <v>680156.977654051</v>
+        <v>680480.0504908295</v>
       </c>
       <c r="O6" t="n">
-        <v>680156.9776540505</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="P6" t="n">
-        <v>680156.9776540508</v>
+        <v>680480.0504908293</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26752,7 +26752,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
         <v>1358.041048716387</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.872616162303612e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.684341886080801e-12</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.10759284657462</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>219.4229807160724</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060688</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>47.83987471325058</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>125.0197918709312</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>209.5349519316053</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.519365296858341e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,7 +31834,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31846,31 +31846,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>392.6825986891673</v>
+        <v>428.3656332688752</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,7 +32071,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,34 +32080,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>237.3711776018486</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>270.7843846131307</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927615</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982436</v>
+        <v>489.7119024980491</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>181.3625385436708</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,19 +32560,19 @@
         <v>634.2436048745732</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927647</v>
+        <v>428.3656332688715</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P21" t="n">
-        <v>413.732621286791</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,28 +32791,28 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K24" t="n">
-        <v>471.688653684823</v>
+        <v>199.0463877591069</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4749205278488</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426213</v>
       </c>
       <c r="P24" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862166</v>
@@ -33028,7 +33028,7 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745732</v>
@@ -33040,10 +33040,10 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426213</v>
+        <v>422.3544583169052</v>
       </c>
       <c r="P27" t="n">
-        <v>195.1793561990784</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33265,13 +33265,13 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M30" t="n">
-        <v>270.7843846131163</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927647</v>
@@ -33280,13 +33280,13 @@
         <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>557.796143198246</v>
+        <v>195.1793561990784</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862166</v>
@@ -33511,19 +33511,19 @@
         <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>164.2145103509229</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>159.4963216193707</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862166</v>
@@ -33739,7 +33739,7 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745732</v>
@@ -33748,19 +33748,19 @@
         <v>740.1323715504309</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426213</v>
+        <v>394.0223077997468</v>
       </c>
       <c r="P36" t="n">
-        <v>159.4963216193707</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862166</v>
@@ -33976,13 +33976,13 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504309</v>
+        <v>672.0481308502308</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -33994,10 +33994,10 @@
         <v>557.796143198246</v>
       </c>
       <c r="Q39" t="n">
-        <v>370.0617135165774</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862166</v>
@@ -34450,22 +34450,22 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>471.688653684823</v>
+        <v>373.222989603604</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745732</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>413.732621286791</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34947,13 +34947,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,10 +35266,10 @@
         <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>741.0722806160991</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,25 +35494,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>261.340886605834</v>
+        <v>297.0239211855419</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.567381269501</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.38940351582706</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989831</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>128.6503506911124</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094282</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981739</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839134</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>35.68303457970686</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M20" t="n">
-        <v>779.6000841311419</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N20" t="n">
         <v>744.732300926371</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>495.689225094699</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094314</v>
+        <v>297.0239211855382</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P21" t="n">
-        <v>279.7582138724608</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607207</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380633</v>
@@ -36381,7 +36381,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K24" t="n">
-        <v>333.847214710464</v>
+        <v>61.20494878474792</v>
       </c>
       <c r="L24" t="n">
         <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>261.3408866058305</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981769</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>689.7596327870094</v>
       </c>
       <c r="P26" t="n">
-        <v>605.1570404425671</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q26" t="n">
         <v>367.2547334404118</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
         <v>495.689225094699</v>
@@ -36688,10 +36688,10 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981769</v>
+        <v>279.7582138724608</v>
       </c>
       <c r="P27" t="n">
-        <v>61.20494878474815</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>744.732300926371</v>
       </c>
       <c r="O29" t="n">
-        <v>741.0722806160927</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P29" t="n">
         <v>553.8443926134837</v>
@@ -36855,7 +36855,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M30" t="n">
-        <v>128.6503506910981</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094314</v>
@@ -36928,13 +36928,13 @@
         <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839158</v>
+        <v>61.20494878474815</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37159,19 +37159,19 @@
         <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>32.87279826758958</v>
       </c>
       <c r="O33" t="n">
         <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>25.52191420504044</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870094</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
         <v>495.689225094699</v>
@@ -37396,19 +37396,19 @@
         <v>597.9983376284126</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981769</v>
+        <v>251.4260633553024</v>
       </c>
       <c r="P36" t="n">
-        <v>25.52191420504044</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>605.1570404425662</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
         <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L39" t="n">
         <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284126</v>
+        <v>529.9140969282124</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>423.8217357839158</v>
       </c>
       <c r="Q39" t="n">
-        <v>230.0799394305558</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311428</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
         <v>744.732300926371</v>
@@ -37803,7 +37803,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
         <v>625.7775560664402</v>
@@ -38040,7 +38040,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>333.847214710464</v>
+        <v>235.381550629245</v>
       </c>
       <c r="L45" t="n">
         <v>495.689225094699</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>279.7582138724608</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
